--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19140" windowHeight="12210" tabRatio="795"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19140" windowHeight="11325" tabRatio="795"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="12" r:id="rId1"/>
@@ -135,10 +135,10 @@
     <t>-Mx</t>
   </si>
   <si>
-    <t>Libor</t>
+    <t>HKD</t>
   </si>
   <si>
-    <t>HKD</t>
+    <t>Hibor</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="D8" s="29" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="24"/>
       <c r="V14" s="9" t="s">
@@ -1274,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="24"/>
     </row>
@@ -1305,7 +1305,7 @@
       <formula1>"EUR,USD,GBP,JPY,CHF,HKD,CHY,AUD,PLN,HUF"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Libor,ibor"</formula1>
+      <formula1>"Libor,ibor,Hibor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E10" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F3" s="56" t="str">
         <f t="shared" ref="F3:F10" si="1">Currency&amp;C3&amp;D3&amp;"_Quote"</f>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F4" s="47" t="str">
         <f t="shared" si="1"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E5" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F5" s="46" t="str">
         <f t="shared" si="1"/>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="E6" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F6" s="46" t="str">
         <f t="shared" si="1"/>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="E7" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F7" s="46" t="str">
         <f t="shared" si="1"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="E8" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F8" s="46" t="str">
         <f t="shared" si="1"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E9" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F9" s="46" t="str">
         <f t="shared" si="1"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="E10" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F10" s="47" t="str">
         <f t="shared" si="1"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E22" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F3" s="67" t="b">
         <v>0</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F4" s="69" t="b">
         <v>0</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="E5" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F5" s="67" t="b">
         <v>0</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="E6" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F6" s="68" t="b">
         <v>0</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E7" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F7" s="68" t="b">
         <v>0</v>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E8" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F8" s="68" t="b">
         <v>0</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E9" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F9" s="68" t="b">
         <v>0</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E10" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F10" s="68" t="b">
         <v>0</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E11" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F11" s="68" t="b">
         <v>0</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="E12" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F12" s="68" t="b">
         <v>0</v>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E13" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F13" s="68" t="b">
         <v>0</v>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="E14" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F14" s="68" t="b">
         <v>0</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E15" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F15" s="68" t="b">
         <v>0</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E16" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F16" s="68" t="b">
         <v>0</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="E17" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F17" s="68" t="b">
         <v>0</v>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E18" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F18" s="68" t="b">
         <v>0</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E19" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F19" s="68" t="b">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E20" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F20" s="68" t="b">
         <v>0</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="E21" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F21" s="68" t="b">
         <v>0</v>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E22" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F22" s="68" t="b">
         <v>0</v>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E49" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F3" s="67" t="b">
         <v>0</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F4" s="69" t="b">
         <v>0</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="E5" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F5" s="68" t="b">
         <v>1</v>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E6" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F6" s="68" t="b">
         <v>1</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="E7" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F7" s="68" t="b">
         <v>1</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E8" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F8" s="68" t="b">
         <v>1</v>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="E9" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F9" s="68" t="b">
         <v>1</v>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="E10" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F10" s="68" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E11" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F11" s="68" t="b">
         <v>1</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="E12" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F12" s="68" t="b">
         <v>1</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E13" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F13" s="68" t="b">
         <v>1</v>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="E14" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F14" s="68" t="b">
         <v>1</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="E15" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F15" s="68" t="b">
         <v>1</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="E16" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F16" s="70" t="b">
         <v>0</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="E17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F17" s="67" t="b">
         <v>1</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E18" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F18" s="68" t="b">
         <v>1</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="E19" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F19" s="68" t="b">
         <v>1</v>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="E20" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F20" s="68" t="b">
         <v>1</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="E21" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F21" s="68" t="b">
         <v>1</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="E22" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F22" s="68" t="b">
         <v>1</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E23" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F23" s="68" t="b">
         <v>1</v>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="E24" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F24" s="68" t="b">
         <v>1</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E25" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F25" s="68" t="b">
         <v>1</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="E26" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F26" s="68" t="b">
         <v>1</v>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E27" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F27" s="69" t="b">
         <v>1</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F28" s="67" t="b">
         <v>1</v>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E29" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F29" s="68" t="b">
         <v>1</v>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="E30" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F30" s="68" t="b">
         <v>1</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="E31" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F31" s="68" t="b">
         <v>1</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E32" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F32" s="68" t="b">
         <v>1</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="E33" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F33" s="68" t="b">
         <v>1</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="E34" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F34" s="68" t="b">
         <v>1</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E35" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F35" s="68" t="b">
         <v>1</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="E36" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F36" s="68" t="b">
         <v>1</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="E37" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F37" s="68" t="b">
         <v>1</v>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E38" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F38" s="69" t="b">
         <v>1</v>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="E39" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F39" s="68" t="b">
         <v>1</v>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="E40" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F40" s="68" t="b">
         <v>1</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="E41" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F41" s="68" t="b">
         <v>1</v>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="E42" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F42" s="68" t="b">
         <v>1</v>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E43" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F43" s="68" t="b">
         <v>1</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="E44" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F44" s="68" t="b">
         <v>1</v>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="E45" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F45" s="68" t="b">
         <v>1</v>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="E46" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F46" s="68" t="b">
         <v>1</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="E47" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F47" s="68" t="b">
         <v>1</v>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="E48" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F48" s="68" t="b">
         <v>1</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="E49" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F49" s="69" t="b">
         <v>1</v>
@@ -4489,13 +4489,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCSTDRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
+      <c r="H2" s="35">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>2</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4521,13 +4521,13 @@
         <f>$G$1&amp;"_"&amp;$C3&amp;$D3</f>
         <v>HKD_YCSTDRH_TND</v>
       </c>
-      <c r="H3" s="56" t="e">
+      <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCSTDRH_TND#0002</v>
       </c>
       <c r="I3" s="59" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H3)</f>
-        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(H3)</f>
+        <v/>
       </c>
       <c r="J3" s="16"/>
     </row>
@@ -4553,13 +4553,13 @@
         <f>$G$1&amp;"_"&amp;$C4&amp;$D4</f>
         <v>HKD_YCSTDRH_SND</v>
       </c>
-      <c r="H4" s="47" t="e">
+      <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCSTDRH_SND#0002</v>
       </c>
       <c r="I4" s="72" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H4)</f>
-        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(H4)</f>
+        <v/>
       </c>
       <c r="J4" s="16"/>
     </row>
@@ -4641,13 +4641,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
+      <c r="H2" s="35">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>2</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4673,13 +4673,13 @@
         <f>$G$1&amp;"_"&amp;$C3&amp;$D3</f>
         <v>HKD_YCRH_TND</v>
       </c>
-      <c r="H3" s="56" t="e">
+      <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCRH_TND#0002</v>
       </c>
       <c r="I3" s="59" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H3)</f>
-        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(H3)</f>
+        <v/>
       </c>
       <c r="J3" s="16"/>
     </row>
@@ -4705,13 +4705,13 @@
         <f>$G$1&amp;"_"&amp;$C4&amp;$D4</f>
         <v>HKD_YCRH_SND</v>
       </c>
-      <c r="H4" s="47" t="e">
+      <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCRH_SND#0002</v>
       </c>
       <c r="I4" s="72" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H4)</f>
-        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(H4)</f>
+        <v/>
       </c>
       <c r="J4" s="16"/>
     </row>
@@ -4795,13 +4795,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCONRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
+      <c r="H2" s="35">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>2</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4827,13 +4827,13 @@
         <f>$G$1&amp;"_"&amp;$C3&amp;$D3</f>
         <v>HKD_YCONRH_TND</v>
       </c>
-      <c r="H3" s="56" t="e">
+      <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCONRH_TND#0002</v>
       </c>
       <c r="I3" s="59" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H3)</f>
-        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(H3)</f>
+        <v/>
       </c>
       <c r="J3" s="16"/>
     </row>
@@ -4859,13 +4859,13 @@
         <f>$G$1&amp;"_"&amp;$C4&amp;$D4</f>
         <v>HKD_YCONRH_SND</v>
       </c>
-      <c r="H4" s="47" t="e">
+      <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>HKD_YCONRH_SND#0002</v>
       </c>
       <c r="I4" s="72" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H4)</f>
-        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'Eonia'</v>
+        <f>_xll.ohRangeRetrieveError(H4)</f>
+        <v/>
       </c>
       <c r="J4" s="16"/>
     </row>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="E3" s="56" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor1M</v>
+        <v>HkdHibor1M</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>Currency&amp;C3&amp;D3&amp;"_Quote"</f>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor1M</v>
+        <v>HkdHibor1M</v>
       </c>
       <c r="F4" s="47" t="str">
         <f>Currency&amp;C4&amp;D4&amp;"_Quote"</f>
@@ -5058,10 +5058,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I6" sqref="I6:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5069,8 +5069,8 @@
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="36" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" style="37" bestFit="1" customWidth="1"/>
@@ -5114,8 +5114,8 @@
         <v>HKD_YC3MRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>8</v>
+        <f>IF(Serialize,_xll.ohObjectSave(H3:H13,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>11</v>
       </c>
       <c r="I2" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(H2)</f>
@@ -5136,15 +5136,15 @@
         <v>16</v>
       </c>
       <c r="E3" s="56" t="str">
-        <f t="shared" ref="E3:E10" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor3M</v>
+        <f t="shared" ref="E3:E13" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F3" s="56" t="str">
-        <f t="shared" ref="F3:F10" si="1">Currency&amp;C3&amp;D3&amp;"_Quote"</f>
+        <f t="shared" ref="F3:F13" si="1">Currency&amp;C3&amp;D3&amp;"_Quote"</f>
         <v>HKDT3F1_Quote</v>
       </c>
       <c r="G3" s="56" t="str">
-        <f t="shared" ref="G3:G10" si="2">$G$1&amp;"_"&amp;$C3&amp;$D3</f>
+        <f t="shared" ref="G3:G13" si="2">$G$1&amp;"_"&amp;$C3&amp;$D3</f>
         <v>HKD_YC3MRH_T3F1</v>
       </c>
       <c r="H3" s="56" t="str">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F4" s="47" t="str">
         <f t="shared" si="1"/>
@@ -5194,19 +5194,19 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="51" t="str">
-        <f t="shared" ref="B5:B10" si="3">C5&amp;"M"</f>
+        <f t="shared" ref="B5:B13" si="3">C5&amp;"M"</f>
         <v>1M</v>
       </c>
       <c r="C5" s="51">
         <v>1</v>
       </c>
       <c r="D5" s="49" t="str">
-        <f t="shared" ref="D5:D10" si="4">"x"&amp;C5+$D$1&amp;"F"</f>
+        <f t="shared" ref="D5:D13" si="4">"x"&amp;C5+$D$1&amp;"F"</f>
         <v>x4F</v>
       </c>
       <c r="E5" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F5" s="46" t="str">
         <f t="shared" si="1"/>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="E6" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F6" s="46" t="str">
         <f t="shared" si="1"/>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E7" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F7" s="46" t="str">
         <f t="shared" si="1"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="E8" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F8" s="46" t="str">
         <f t="shared" si="1"/>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E9" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="F9" s="46" t="str">
         <f t="shared" si="1"/>
@@ -5368,55 +5368,160 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="52" t="str">
+      <c r="B10" s="51" t="str">
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="51">
         <v>6</v>
       </c>
-      <c r="D10" s="53" t="str">
+      <c r="D10" s="49" t="str">
         <f t="shared" si="4"/>
         <v>x9F</v>
       </c>
-      <c r="E10" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
-      </c>
-      <c r="F10" s="47" t="str">
+      <c r="E10" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>HkdHibor3M</v>
+      </c>
+      <c r="F10" s="46" t="str">
         <f t="shared" si="1"/>
         <v>HKD6x9F_Quote</v>
       </c>
-      <c r="G10" s="47" t="str">
+      <c r="G10" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_6x9F</v>
       </c>
-      <c r="H10" s="47" t="str">
+      <c r="H10" s="46" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>HKD_YC3MRH_6x9F#0001</v>
       </c>
-      <c r="I10" s="45" t="str">
+      <c r="I10" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
         <v/>
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>7M</v>
+      </c>
+      <c r="C11" s="51">
+        <v>7</v>
+      </c>
+      <c r="D11" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v>x10F</v>
+      </c>
+      <c r="E11" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>HkdHibor3M</v>
+      </c>
+      <c r="F11" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>HKD7x10F_Quote</v>
+      </c>
+      <c r="G11" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>HKD_YC3MRH_7x10F</v>
+      </c>
+      <c r="H11" s="46" t="str">
+        <f>_xll.qlFraRateHelper(G11,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD_YC3MRH_7x10F#0001</v>
+      </c>
+      <c r="I11" s="44" t="str">
+        <f>_xll.ohRangeRetrieveError(H11)</f>
+        <v/>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v>8M</v>
+      </c>
+      <c r="C12" s="51">
+        <v>8</v>
+      </c>
+      <c r="D12" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v>x11F</v>
+      </c>
+      <c r="E12" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>HkdHibor3M</v>
+      </c>
+      <c r="F12" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>HKD8x11F_Quote</v>
+      </c>
+      <c r="G12" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>HKD_YC3MRH_8x11F</v>
+      </c>
+      <c r="H12" s="46" t="str">
+        <f>_xll.qlFraRateHelper(G12,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD_YC3MRH_8x11F#0001</v>
+      </c>
+      <c r="I12" s="44" t="str">
+        <f>_xll.ohRangeRetrieveError(H12)</f>
+        <v/>
+      </c>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>9M</v>
+      </c>
+      <c r="C13" s="52">
+        <v>9</v>
+      </c>
+      <c r="D13" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>x12F</v>
+      </c>
+      <c r="E13" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>HkdHibor3M</v>
+      </c>
+      <c r="F13" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>HKD9x12F_Quote</v>
+      </c>
+      <c r="G13" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>HKD_YC3MRH_9x12F</v>
+      </c>
+      <c r="H13" s="47" t="str">
+        <f>_xll.qlFraRateHelper(G13,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD_YC3MRH_9x12F#0001</v>
+      </c>
+      <c r="I13" s="45" t="str">
+        <f>_xll.ohRangeRetrieveError(H13)</f>
+        <v/>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="H16" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5440,7 +5545,7 @@
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="36" bestFit="1" customWidth="1"/>
@@ -5512,7 +5617,7 @@
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E22" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F3" s="67" t="b">
         <v>0</v>
@@ -5549,7 +5654,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F4" s="69" t="b">
         <v>0</v>
@@ -5587,7 +5692,7 @@
       </c>
       <c r="E5" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F5" s="67" t="b">
         <v>0</v>
@@ -5625,7 +5730,7 @@
       </c>
       <c r="E6" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F6" s="68" t="b">
         <v>0</v>
@@ -5663,7 +5768,7 @@
       </c>
       <c r="E7" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F7" s="68" t="b">
         <v>0</v>
@@ -5701,7 +5806,7 @@
       </c>
       <c r="E8" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F8" s="68" t="b">
         <v>0</v>
@@ -5739,7 +5844,7 @@
       </c>
       <c r="E9" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F9" s="68" t="b">
         <v>0</v>
@@ -5777,7 +5882,7 @@
       </c>
       <c r="E10" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F10" s="68" t="b">
         <v>0</v>
@@ -5815,7 +5920,7 @@
       </c>
       <c r="E11" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F11" s="68" t="b">
         <v>0</v>
@@ -5853,7 +5958,7 @@
       </c>
       <c r="E12" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F12" s="68" t="b">
         <v>0</v>
@@ -5891,7 +5996,7 @@
       </c>
       <c r="E13" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F13" s="68" t="b">
         <v>0</v>
@@ -5929,7 +6034,7 @@
       </c>
       <c r="E14" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F14" s="68" t="b">
         <v>0</v>
@@ -5967,7 +6072,7 @@
       </c>
       <c r="E15" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F15" s="68" t="b">
         <v>0</v>
@@ -6005,7 +6110,7 @@
       </c>
       <c r="E16" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F16" s="68" t="b">
         <v>0</v>
@@ -6043,7 +6148,7 @@
       </c>
       <c r="E17" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F17" s="68" t="b">
         <v>0</v>
@@ -6081,7 +6186,7 @@
       </c>
       <c r="E18" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F18" s="68" t="b">
         <v>0</v>
@@ -6119,7 +6224,7 @@
       </c>
       <c r="E19" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F19" s="68" t="b">
         <v>0</v>
@@ -6157,7 +6262,7 @@
       </c>
       <c r="E20" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F20" s="68" t="b">
         <v>0</v>
@@ -6195,7 +6300,7 @@
       </c>
       <c r="E21" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F21" s="68" t="b">
         <v>0</v>
@@ -6233,7 +6338,7 @@
       </c>
       <c r="E22" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="F22" s="68" t="b">
         <v>0</v>
@@ -6369,7 +6474,7 @@
       </c>
       <c r="E3" s="56" t="str">
         <f t="shared" ref="E3:E49" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F3" s="67" t="b">
         <v>0</v>
@@ -6406,7 +6511,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F4" s="69" t="b">
         <v>0</v>
@@ -6444,7 +6549,7 @@
       </c>
       <c r="E5" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F5" s="68" t="b">
         <v>1</v>
@@ -6482,7 +6587,7 @@
       </c>
       <c r="E6" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F6" s="68" t="b">
         <v>1</v>
@@ -6520,7 +6625,7 @@
       </c>
       <c r="E7" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F7" s="68" t="b">
         <v>1</v>
@@ -6558,7 +6663,7 @@
       </c>
       <c r="E8" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F8" s="68" t="b">
         <v>1</v>
@@ -6596,7 +6701,7 @@
       </c>
       <c r="E9" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F9" s="68" t="b">
         <v>1</v>
@@ -6634,7 +6739,7 @@
       </c>
       <c r="E10" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F10" s="68" t="b">
         <v>1</v>
@@ -6672,7 +6777,7 @@
       </c>
       <c r="E11" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F11" s="68" t="b">
         <v>1</v>
@@ -6710,7 +6815,7 @@
       </c>
       <c r="E12" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F12" s="68" t="b">
         <v>1</v>
@@ -6748,7 +6853,7 @@
       </c>
       <c r="E13" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F13" s="68" t="b">
         <v>1</v>
@@ -6786,7 +6891,7 @@
       </c>
       <c r="E14" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F14" s="68" t="b">
         <v>1</v>
@@ -6824,7 +6929,7 @@
       </c>
       <c r="E15" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F15" s="68" t="b">
         <v>1</v>
@@ -6862,7 +6967,7 @@
       </c>
       <c r="E16" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F16" s="70" t="b">
         <v>0</v>
@@ -6900,7 +7005,7 @@
       </c>
       <c r="E17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F17" s="67" t="b">
         <v>1</v>
@@ -6938,7 +7043,7 @@
       </c>
       <c r="E18" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F18" s="68" t="b">
         <v>1</v>
@@ -6976,7 +7081,7 @@
       </c>
       <c r="E19" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F19" s="68" t="b">
         <v>1</v>
@@ -7014,7 +7119,7 @@
       </c>
       <c r="E20" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F20" s="68" t="b">
         <v>1</v>
@@ -7052,7 +7157,7 @@
       </c>
       <c r="E21" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F21" s="68" t="b">
         <v>1</v>
@@ -7090,7 +7195,7 @@
       </c>
       <c r="E22" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F22" s="68" t="b">
         <v>1</v>
@@ -7128,7 +7233,7 @@
       </c>
       <c r="E23" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F23" s="68" t="b">
         <v>1</v>
@@ -7166,7 +7271,7 @@
       </c>
       <c r="E24" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F24" s="68" t="b">
         <v>1</v>
@@ -7204,7 +7309,7 @@
       </c>
       <c r="E25" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F25" s="68" t="b">
         <v>1</v>
@@ -7242,7 +7347,7 @@
       </c>
       <c r="E26" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F26" s="68" t="b">
         <v>1</v>
@@ -7280,7 +7385,7 @@
       </c>
       <c r="E27" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F27" s="69" t="b">
         <v>1</v>
@@ -7318,7 +7423,7 @@
       </c>
       <c r="E28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F28" s="67" t="b">
         <v>1</v>
@@ -7356,7 +7461,7 @@
       </c>
       <c r="E29" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F29" s="68" t="b">
         <v>1</v>
@@ -7394,7 +7499,7 @@
       </c>
       <c r="E30" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F30" s="68" t="b">
         <v>1</v>
@@ -7432,7 +7537,7 @@
       </c>
       <c r="E31" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F31" s="68" t="b">
         <v>1</v>
@@ -7470,7 +7575,7 @@
       </c>
       <c r="E32" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F32" s="68" t="b">
         <v>1</v>
@@ -7508,7 +7613,7 @@
       </c>
       <c r="E33" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F33" s="68" t="b">
         <v>1</v>
@@ -7546,7 +7651,7 @@
       </c>
       <c r="E34" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F34" s="68" t="b">
         <v>1</v>
@@ -7584,7 +7689,7 @@
       </c>
       <c r="E35" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F35" s="68" t="b">
         <v>1</v>
@@ -7622,7 +7727,7 @@
       </c>
       <c r="E36" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F36" s="68" t="b">
         <v>1</v>
@@ -7660,7 +7765,7 @@
       </c>
       <c r="E37" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F37" s="68" t="b">
         <v>1</v>
@@ -7698,7 +7803,7 @@
       </c>
       <c r="E38" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F38" s="69" t="b">
         <v>1</v>
@@ -7736,7 +7841,7 @@
       </c>
       <c r="E39" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F39" s="68" t="b">
         <v>1</v>
@@ -7774,7 +7879,7 @@
       </c>
       <c r="E40" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F40" s="68" t="b">
         <v>1</v>
@@ -7812,7 +7917,7 @@
       </c>
       <c r="E41" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F41" s="68" t="b">
         <v>1</v>
@@ -7850,7 +7955,7 @@
       </c>
       <c r="E42" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F42" s="68" t="b">
         <v>1</v>
@@ -7888,7 +7993,7 @@
       </c>
       <c r="E43" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F43" s="68" t="b">
         <v>1</v>
@@ -7926,7 +8031,7 @@
       </c>
       <c r="E44" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F44" s="68" t="b">
         <v>1</v>
@@ -7964,7 +8069,7 @@
       </c>
       <c r="E45" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F45" s="68" t="b">
         <v>1</v>
@@ -8002,7 +8107,7 @@
       </c>
       <c r="E46" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F46" s="68" t="b">
         <v>1</v>
@@ -8040,7 +8145,7 @@
       </c>
       <c r="E47" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F47" s="68" t="b">
         <v>1</v>
@@ -8078,7 +8183,7 @@
       </c>
       <c r="E48" s="46" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F48" s="68" t="b">
         <v>1</v>
@@ -8116,7 +8221,7 @@
       </c>
       <c r="E49" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="F49" s="69" t="b">
         <v>1</v>
@@ -8251,7 +8356,7 @@
       </c>
       <c r="E3" s="56" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor1M</v>
+        <v>HkdHibor1M</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>Currency&amp;C3&amp;D3&amp;"_Quote"</f>
@@ -8285,7 +8390,7 @@
       </c>
       <c r="E4" s="47" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>HkdLibor1M</v>
+        <v>HkdHibor1M</v>
       </c>
       <c r="F4" s="47" t="str">
         <f>Currency&amp;C4&amp;D4&amp;"_Quote"</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
@@ -20,9 +20,6 @@
     <sheet name="6M (2)" sheetId="31" r:id="rId11"/>
     <sheet name="1Y (2)" sheetId="32" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -822,22 +819,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1146,7 +1127,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1214,8 +1195,8 @@
         <v>8</v>
       </c>
       <c r="D8" s="29" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1375,13 +1356,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC3M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>8</v>
-      </c>
-      <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" s="43" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -1753,13 +1734,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6M-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
-      </c>
-      <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" s="59" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -2613,13 +2594,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1Y-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>47</v>
-      </c>
-      <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" s="59" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -4489,13 +4470,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCSTDRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_FRAs.xml</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4523,7 +4504,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_TND#0002</v>
+        <v>HKD_YCSTDRH_TND#0001</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -4555,7 +4536,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SND#0002</v>
+        <v>HKD_YCSTDRH_SND#0001</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -4641,13 +4622,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCRH_FRAs.xml</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4675,7 +4656,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_TND#0002</v>
+        <v>HKD_YCRH_TND#0001</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -4707,7 +4688,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_SND#0002</v>
+        <v>HKD_YCRH_SND#0001</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -4795,13 +4776,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCONRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCONRH_FRAs.xml</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4829,7 +4810,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_TND#0002</v>
+        <v>HKD_YCONRH_TND#0001</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -4861,7 +4842,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_SND#0002</v>
+        <v>HKD_YCONRH_SND#0001</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -4952,13 +4933,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_FRAs.xml</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5113,13 +5094,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC3MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H13,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_FRAs.xml</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5593,13 +5574,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_FRAs.xml</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -6450,13 +6431,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1YRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>47</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1YRH_FRAs.xml</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -8332,13 +8313,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
-      </c>
-      <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" s="43" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="16"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>Currency</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Hibor</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1194,9 +1197,8 @@
       <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1360,9 +1362,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="I2" s="43" t="e">
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -1738,9 +1740,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="J2" s="59" t="e">
+      <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -2598,9 +2600,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="J2" s="59" t="e">
+      <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -4476,7 +4478,7 @@
       </c>
       <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4628,7 +4630,7 @@
       </c>
       <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4782,7 +4784,7 @@
       </c>
       <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCONRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4939,7 +4941,7 @@
       </c>
       <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5100,7 +5102,7 @@
       </c>
       <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5580,7 +5582,7 @@
       </c>
       <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -6437,7 +6439,7 @@
       </c>
       <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1YRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -8317,9 +8319,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="I2" s="43" t="e">
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Currency</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Hibor</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1194,9 @@
       <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>29</v>
+      <c r="D8" s="29" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1359,12 +1357,12 @@
         <v>HKD_YC3M-MxRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -1737,12 +1735,12 @@
         <v>HKD_YC6M-MxRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -2597,12 +2595,12 @@
         <v>HKD_YC1Y-MxRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -4473,12 +4471,12 @@
         <v>HKD_YCSTDRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4625,12 +4623,12 @@
         <v>HKD_YCRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4779,12 +4777,12 @@
         <v>HKD_YCONRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4936,12 +4934,12 @@
         <v>HKD_YC1MRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5097,12 +5095,12 @@
         <v>HKD_YC3MRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H13,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H13,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5577,12 +5575,12 @@
         <v>HKD_YC6MRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -6434,12 +6432,12 @@
         <v>HKD_YC1YRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -8316,12 +8314,12 @@
         <v>HKD_YC1M-MxRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_FRAs.xlsx
@@ -1127,7 +1127,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D8" s="29" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1356,13 +1356,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC3M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="43" t="e">
+      <c r="H2" s="35">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>8</v>
+      </c>
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_T3F1#0001</v>
+        <v>HKD_YC3M-MxRH_T3F1#0002</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_TOM3F1#0001</v>
+        <v>HKD_YC3M-MxRH_TOM3F1#0002</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H5" s="46" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_1x4F#0001</v>
+        <v>HKD_YC3M-MxRH_1x4F#0002</v>
       </c>
       <c r="I5" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H6" s="46" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_2x5F#0001</v>
+        <v>HKD_YC3M-MxRH_2x5F#0002</v>
       </c>
       <c r="I6" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="H7" s="46" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_3x6F#0001</v>
+        <v>HKD_YC3M-MxRH_3x6F#0002</v>
       </c>
       <c r="I7" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H8" s="46" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_4x7F#0001</v>
+        <v>HKD_YC3M-MxRH_4x7F#0002</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="H9" s="46" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_5x8F#0001</v>
+        <v>HKD_YC3M-MxRH_5x8F#0002</v>
       </c>
       <c r="I9" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H10" s="47" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_6x9F#0001</v>
+        <v>HKD_YC3M-MxRH_6x9F#0002</v>
       </c>
       <c r="I10" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -1734,13 +1734,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6M-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="59" t="e">
+      <c r="I2" s="64">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>20</v>
+      </c>
+      <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_T6F1#0001</v>
+        <v>HKD_YC6M-MxRH_T6F1#0002</v>
       </c>
       <c r="J3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="I4" s="47" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_TOM6F1#0001</v>
+        <v>HKD_YC6M-MxRH_TOM6F1#0002</v>
       </c>
       <c r="J4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I5" s="56" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_1x7F#0001</v>
+        <v>HKD_YC6M-MxRH_1x7F#0002</v>
       </c>
       <c r="J5" s="57" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="I6" s="46" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_2x8F#0001</v>
+        <v>HKD_YC6M-MxRH_2x8F#0002</v>
       </c>
       <c r="J6" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I7" s="46" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_3x9F#0001</v>
+        <v>HKD_YC6M-MxRH_3x9F#0002</v>
       </c>
       <c r="J7" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="I8" s="46" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_4x10F#0001</v>
+        <v>HKD_YC6M-MxRH_4x10F#0002</v>
       </c>
       <c r="J8" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="I9" s="46" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_5x11F#0001</v>
+        <v>HKD_YC6M-MxRH_5x11F#0002</v>
       </c>
       <c r="J9" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="I10" s="46" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_6x12F#0001</v>
+        <v>HKD_YC6M-MxRH_6x12F#0002</v>
       </c>
       <c r="J10" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="I11" s="46" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_7x13F#0001</v>
+        <v>HKD_YC6M-MxRH_7x13F#0002</v>
       </c>
       <c r="J11" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="I12" s="46" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_8x14F#0001</v>
+        <v>HKD_YC6M-MxRH_8x14F#0002</v>
       </c>
       <c r="J12" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="I13" s="46" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_9x15F#0001</v>
+        <v>HKD_YC6M-MxRH_9x15F#0002</v>
       </c>
       <c r="J13" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="I14" s="46" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_10x16F#0001</v>
+        <v>HKD_YC6M-MxRH_10x16F#0002</v>
       </c>
       <c r="J14" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="I15" s="46" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_11x17F#0001</v>
+        <v>HKD_YC6M-MxRH_11x17F#0002</v>
       </c>
       <c r="J15" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="I16" s="46" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_12x18F#0001</v>
+        <v>HKD_YC6M-MxRH_12x18F#0002</v>
       </c>
       <c r="J16" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I17" s="46" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_13x19F#0001</v>
+        <v>HKD_YC6M-MxRH_13x19F#0002</v>
       </c>
       <c r="J17" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="I18" s="46" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_14x20F#0001</v>
+        <v>HKD_YC6M-MxRH_14x20F#0002</v>
       </c>
       <c r="J18" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="I19" s="46" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_15x21F#0001</v>
+        <v>HKD_YC6M-MxRH_15x21F#0002</v>
       </c>
       <c r="J19" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="I20" s="46" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_16x22F#0001</v>
+        <v>HKD_YC6M-MxRH_16x22F#0002</v>
       </c>
       <c r="J20" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I21" s="46" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_17x23F#0001</v>
+        <v>HKD_YC6M-MxRH_17x23F#0002</v>
       </c>
       <c r="J21" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="I22" s="46" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_18x24F#0001</v>
+        <v>HKD_YC6M-MxRH_18x24F#0002</v>
       </c>
       <c r="J22" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -2594,13 +2594,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1Y-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="59" t="e">
+      <c r="I2" s="64">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>47</v>
+      </c>
+      <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_T12F1#0001</v>
+        <v>HKD_YC1Y-MxRH_T12F1#0002</v>
       </c>
       <c r="J3" s="73" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="I4" s="47" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_TOM12F1#0001</v>
+        <v>HKD_YC1Y-MxRH_TOM12F1#0002</v>
       </c>
       <c r="J4" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_1x13F#0001</v>
+        <v>HKD_YC1Y-MxRH_1x13F#0002</v>
       </c>
       <c r="J5" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="I6" s="46" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_2x14F#0001</v>
+        <v>HKD_YC1Y-MxRH_2x14F#0002</v>
       </c>
       <c r="J6" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="I7" s="46" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_3x15F#0001</v>
+        <v>HKD_YC1Y-MxRH_3x15F#0002</v>
       </c>
       <c r="J7" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="I8" s="46" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_4x16F#0001</v>
+        <v>HKD_YC1Y-MxRH_4x16F#0002</v>
       </c>
       <c r="J8" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="I9" s="46" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_5x17F#0001</v>
+        <v>HKD_YC1Y-MxRH_5x17F#0002</v>
       </c>
       <c r="J9" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="I10" s="46" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_6x18F#0001</v>
+        <v>HKD_YC1Y-MxRH_6x18F#0002</v>
       </c>
       <c r="J10" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="I11" s="46" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_7x19F#0001</v>
+        <v>HKD_YC1Y-MxRH_7x19F#0002</v>
       </c>
       <c r="J11" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="I12" s="46" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_8x20F#0001</v>
+        <v>HKD_YC1Y-MxRH_8x20F#0002</v>
       </c>
       <c r="J12" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="I13" s="46" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_9x21F#0001</v>
+        <v>HKD_YC1Y-MxRH_9x21F#0002</v>
       </c>
       <c r="J13" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="I14" s="46" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_10x22F#0001</v>
+        <v>HKD_YC1Y-MxRH_10x22F#0002</v>
       </c>
       <c r="J14" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="I15" s="46" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_11x23F#0001</v>
+        <v>HKD_YC1Y-MxRH_11x23F#0002</v>
       </c>
       <c r="J15" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="I16" s="42" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_12x24F#0001</v>
+        <v>HKD_YC1Y-MxRH_12x24F#0002</v>
       </c>
       <c r="J16" s="77" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="I17" s="56" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_13x25F#0001</v>
+        <v>HKD_YC1Y-MxRH_13x25F#0002</v>
       </c>
       <c r="J17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="I18" s="46" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_14x26F#0001</v>
+        <v>HKD_YC1Y-MxRH_14x26F#0002</v>
       </c>
       <c r="J18" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="I19" s="46" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_15x27F#0001</v>
+        <v>HKD_YC1Y-MxRH_15x27F#0002</v>
       </c>
       <c r="J19" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="I20" s="46" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_16x28F#0001</v>
+        <v>HKD_YC1Y-MxRH_16x28F#0002</v>
       </c>
       <c r="J20" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="I21" s="46" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_17x29F#0001</v>
+        <v>HKD_YC1Y-MxRH_17x29F#0002</v>
       </c>
       <c r="J21" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="I22" s="46" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_18x30F#0001</v>
+        <v>HKD_YC1Y-MxRH_18x30F#0002</v>
       </c>
       <c r="J22" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="I23" s="46" t="str">
         <f>_xll.qlFraRateHelper(H23,G23,B23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_19x31F#0001</v>
+        <v>HKD_YC1Y-MxRH_19x31F#0002</v>
       </c>
       <c r="J23" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="I24" s="46" t="str">
         <f>_xll.qlFraRateHelper(H24,G24,B24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_20x32F#0001</v>
+        <v>HKD_YC1Y-MxRH_20x32F#0002</v>
       </c>
       <c r="J24" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="I25" s="46" t="str">
         <f>_xll.qlFraRateHelper(H25,G25,B25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_21x33F#0001</v>
+        <v>HKD_YC1Y-MxRH_21x33F#0002</v>
       </c>
       <c r="J25" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="I26" s="46" t="str">
         <f>_xll.qlFraRateHelper(H26,G26,B26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_22x34F#0001</v>
+        <v>HKD_YC1Y-MxRH_22x34F#0002</v>
       </c>
       <c r="J26" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I27" s="47" t="str">
         <f>_xll.qlFraRateHelper(H27,G27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_23x35F#0001</v>
+        <v>HKD_YC1Y-MxRH_23x35F#0002</v>
       </c>
       <c r="J27" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="I28" s="56" t="str">
         <f>_xll.qlFraRateHelper(H28,G28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_25x37F#0001</v>
+        <v>HKD_YC1Y-MxRH_25x37F#0002</v>
       </c>
       <c r="J28" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="I29" s="46" t="str">
         <f>_xll.qlFraRateHelper(H29,G29,B29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_26x38F#0001</v>
+        <v>HKD_YC1Y-MxRH_26x38F#0002</v>
       </c>
       <c r="J29" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="I30" s="46" t="str">
         <f>_xll.qlFraRateHelper(H30,G30,B30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_27x39F#0001</v>
+        <v>HKD_YC1Y-MxRH_27x39F#0002</v>
       </c>
       <c r="J30" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="I31" s="46" t="str">
         <f>_xll.qlFraRateHelper(H31,G31,B31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_28x40F#0001</v>
+        <v>HKD_YC1Y-MxRH_28x40F#0002</v>
       </c>
       <c r="J31" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="I32" s="46" t="str">
         <f>_xll.qlFraRateHelper(H32,G32,B32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_29x41F#0001</v>
+        <v>HKD_YC1Y-MxRH_29x41F#0002</v>
       </c>
       <c r="J32" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="I33" s="46" t="str">
         <f>_xll.qlFraRateHelper(H33,G33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_30x42F#0001</v>
+        <v>HKD_YC1Y-MxRH_30x42F#0002</v>
       </c>
       <c r="J33" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="I34" s="46" t="str">
         <f>_xll.qlFraRateHelper(H34,G34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_31x43F#0001</v>
+        <v>HKD_YC1Y-MxRH_31x43F#0002</v>
       </c>
       <c r="J34" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="I35" s="46" t="str">
         <f>_xll.qlFraRateHelper(H35,G35,B35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_32x44F#0001</v>
+        <v>HKD_YC1Y-MxRH_32x44F#0002</v>
       </c>
       <c r="J35" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I36" s="46" t="str">
         <f>_xll.qlFraRateHelper(H36,G36,B36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_33x45F#0001</v>
+        <v>HKD_YC1Y-MxRH_33x45F#0002</v>
       </c>
       <c r="J36" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="I37" s="46" t="str">
         <f>_xll.qlFraRateHelper(H37,G37,B37,E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_34x46F#0001</v>
+        <v>HKD_YC1Y-MxRH_34x46F#0002</v>
       </c>
       <c r="J37" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="I38" s="47" t="str">
         <f>_xll.qlFraRateHelper(H38,G38,B38,E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_35x47F#0001</v>
+        <v>HKD_YC1Y-MxRH_35x47F#0002</v>
       </c>
       <c r="J38" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="I39" s="46" t="str">
         <f>_xll.qlFraRateHelper(H39,G39,B39,E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_37x49F#0001</v>
+        <v>HKD_YC1Y-MxRH_37x49F#0002</v>
       </c>
       <c r="J39" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="I40" s="46" t="str">
         <f>_xll.qlFraRateHelper(H40,G40,B40,E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_38x50F#0001</v>
+        <v>HKD_YC1Y-MxRH_38x50F#0002</v>
       </c>
       <c r="J40" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="I41" s="46" t="str">
         <f>_xll.qlFraRateHelper(H41,G41,B41,E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_39x51F#0001</v>
+        <v>HKD_YC1Y-MxRH_39x51F#0002</v>
       </c>
       <c r="J41" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="I42" s="46" t="str">
         <f>_xll.qlFraRateHelper(H42,G42,B42,E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_40x52F#0001</v>
+        <v>HKD_YC1Y-MxRH_40x52F#0002</v>
       </c>
       <c r="J42" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="I43" s="46" t="str">
         <f>_xll.qlFraRateHelper(H43,G43,B43,E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_41x53F#0001</v>
+        <v>HKD_YC1Y-MxRH_41x53F#0002</v>
       </c>
       <c r="J43" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="I44" s="46" t="str">
         <f>_xll.qlFraRateHelper(H44,G44,B44,E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_42x54F#0001</v>
+        <v>HKD_YC1Y-MxRH_42x54F#0002</v>
       </c>
       <c r="J44" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="I45" s="46" t="str">
         <f>_xll.qlFraRateHelper(H45,G45,B45,E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_43x55F#0001</v>
+        <v>HKD_YC1Y-MxRH_43x55F#0002</v>
       </c>
       <c r="J45" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="I46" s="46" t="str">
         <f>_xll.qlFraRateHelper(H46,G46,B46,E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_44x56F#0001</v>
+        <v>HKD_YC1Y-MxRH_44x56F#0002</v>
       </c>
       <c r="J46" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="I47" s="46" t="str">
         <f>_xll.qlFraRateHelper(H47,G47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_45x57F#0001</v>
+        <v>HKD_YC1Y-MxRH_45x57F#0002</v>
       </c>
       <c r="J47" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="I48" s="46" t="str">
         <f>_xll.qlFraRateHelper(H48,G48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_46x58F#0001</v>
+        <v>HKD_YC1Y-MxRH_46x58F#0002</v>
       </c>
       <c r="J48" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="I49" s="47" t="str">
         <f>_xll.qlFraRateHelper(H49,G49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1Y-MxRH_47x59F#0001</v>
+        <v>HKD_YC1Y-MxRH_47x59F#0002</v>
       </c>
       <c r="J49" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -4470,13 +4470,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCSTDRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="43" t="e">
+      <c r="H2" s="35">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_TND#0001</v>
+        <v>HKD_YCSTDRH_TND#0002</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SND#0001</v>
+        <v>HKD_YCSTDRH_SND#0002</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -4622,13 +4622,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="43" t="e">
+      <c r="H2" s="35">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_TND#0001</v>
+        <v>HKD_YCRH_TND#0002</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_SND#0001</v>
+        <v>HKD_YCRH_SND#0002</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -4776,13 +4776,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YCONRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="43" t="e">
+      <c r="H2" s="35">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_TND#0001</v>
+        <v>HKD_YCONRH_TND#0002</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_SND#0001</v>
+        <v>HKD_YCONRH_SND#0002</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -4933,13 +4933,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="43" t="e">
+      <c r="H2" s="35">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_T1F1#0001</v>
+        <v>HKD_YC1MRH_T1F1#0002</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_TOM1F1#0001</v>
+        <v>HKD_YC1MRH_TOM1F1#0002</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -5094,13 +5094,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC3MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H13,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="43" t="e">
+      <c r="H2" s="35">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H13,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>11</v>
+      </c>
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_T3F1#0001</v>
+        <v>HKD_YC3MRH_T3F1#0002</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_TOM3F1#0001</v>
+        <v>HKD_YC3MRH_TOM3F1#0002</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="H5" s="46" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1x4F#0001</v>
+        <v>HKD_YC3MRH_1x4F#0002</v>
       </c>
       <c r="I5" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="H6" s="46" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2x5F#0001</v>
+        <v>HKD_YC3MRH_2x5F#0002</v>
       </c>
       <c r="I6" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="H7" s="46" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_3x6F#0001</v>
+        <v>HKD_YC3MRH_3x6F#0002</v>
       </c>
       <c r="I7" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="H8" s="46" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_4x7F#0001</v>
+        <v>HKD_YC3MRH_4x7F#0002</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="H9" s="46" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_5x8F#0001</v>
+        <v>HKD_YC3MRH_5x8F#0002</v>
       </c>
       <c r="I9" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="H10" s="46" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_6x9F#0001</v>
+        <v>HKD_YC3MRH_6x9F#0002</v>
       </c>
       <c r="I10" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="H11" s="46" t="str">
         <f>_xll.qlFraRateHelper(G11,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_7x10F#0001</v>
+        <v>HKD_YC3MRH_7x10F#0002</v>
       </c>
       <c r="I11" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="H12" s="46" t="str">
         <f>_xll.qlFraRateHelper(G12,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_8x11F#0001</v>
+        <v>HKD_YC3MRH_8x11F#0002</v>
       </c>
       <c r="I12" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="H13" s="47" t="str">
         <f>_xll.qlFraRateHelper(G13,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_9x12F#0001</v>
+        <v>HKD_YC3MRH_9x12F#0002</v>
       </c>
       <c r="I13" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -5574,13 +5574,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="59" t="e">
+      <c r="I2" s="64">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>20</v>
+      </c>
+      <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_T6F1#0001</v>
+        <v>HKD_YC6MRH_T6F1#0002</v>
       </c>
       <c r="J3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="I4" s="47" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_TOM6F1#0001</v>
+        <v>HKD_YC6MRH_TOM6F1#0002</v>
       </c>
       <c r="J4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="I5" s="56" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1x7F#0001</v>
+        <v>HKD_YC6MRH_1x7F#0002</v>
       </c>
       <c r="J5" s="57" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="I6" s="46" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2x8F#0001</v>
+        <v>HKD_YC6MRH_2x8F#0002</v>
       </c>
       <c r="J6" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="I7" s="46" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3x9F#0001</v>
+        <v>HKD_YC6MRH_3x9F#0002</v>
       </c>
       <c r="J7" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I8" s="46" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4x10F#0001</v>
+        <v>HKD_YC6MRH_4x10F#0002</v>
       </c>
       <c r="J8" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="I9" s="46" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5x11F#0001</v>
+        <v>HKD_YC6MRH_5x11F#0002</v>
       </c>
       <c r="J9" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="I10" s="46" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6x12F#0001</v>
+        <v>HKD_YC6MRH_6x12F#0002</v>
       </c>
       <c r="J10" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="I11" s="46" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_7x13F#0001</v>
+        <v>HKD_YC6MRH_7x13F#0002</v>
       </c>
       <c r="J11" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="I12" s="46" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_8x14F#0001</v>
+        <v>HKD_YC6MRH_8x14F#0002</v>
       </c>
       <c r="J12" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="I13" s="46" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_9x15F#0001</v>
+        <v>HKD_YC6MRH_9x15F#0002</v>
       </c>
       <c r="J13" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="I14" s="46" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_10x16F#0001</v>
+        <v>HKD_YC6MRH_10x16F#0002</v>
       </c>
       <c r="J14" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="I15" s="46" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_11x17F#0001</v>
+        <v>HKD_YC6MRH_11x17F#0002</v>
       </c>
       <c r="J15" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="I16" s="46" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_12x18F#0001</v>
+        <v>HKD_YC6MRH_12x18F#0002</v>
       </c>
       <c r="J16" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I17" s="46" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_13x19F#0001</v>
+        <v>HKD_YC6MRH_13x19F#0002</v>
       </c>
       <c r="J17" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="I18" s="46" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_14x20F#0001</v>
+        <v>HKD_YC6MRH_14x20F#0002</v>
       </c>
       <c r="J18" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="I19" s="46" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_15x21F#0001</v>
+        <v>HKD_YC6MRH_15x21F#0002</v>
       </c>
       <c r="J19" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="I20" s="46" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_16x22F#0001</v>
+        <v>HKD_YC6MRH_16x22F#0002</v>
       </c>
       <c r="J20" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="I21" s="46" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_17x23F#0001</v>
+        <v>HKD_YC6MRH_17x23F#0002</v>
       </c>
       <c r="J21" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="I22" s="46" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_18x24F#0001</v>
+        <v>HKD_YC6MRH_18x24F#0002</v>
       </c>
       <c r="J22" s="44" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -6431,13 +6431,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1YRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="59" t="e">
+      <c r="I2" s="64">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>47</v>
+      </c>
+      <c r="J2" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_T12F1#0001</v>
+        <v>HKD_YC1YRH_T12F1#0002</v>
       </c>
       <c r="J3" s="73" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="I4" s="47" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_TOM12F1#0001</v>
+        <v>HKD_YC1YRH_TOM12F1#0002</v>
       </c>
       <c r="J4" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="I5" s="46" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_1x13F#0001</v>
+        <v>HKD_YC1YRH_1x13F#0002</v>
       </c>
       <c r="J5" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="I6" s="46" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_2x14F#0001</v>
+        <v>HKD_YC1YRH_2x14F#0002</v>
       </c>
       <c r="J6" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="I7" s="46" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_3x15F#0001</v>
+        <v>HKD_YC1YRH_3x15F#0002</v>
       </c>
       <c r="J7" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="I8" s="46" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_4x16F#0001</v>
+        <v>HKD_YC1YRH_4x16F#0002</v>
       </c>
       <c r="J8" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I9" s="46" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_5x17F#0001</v>
+        <v>HKD_YC1YRH_5x17F#0002</v>
       </c>
       <c r="J9" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I10" s="46" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_6x18F#0001</v>
+        <v>HKD_YC1YRH_6x18F#0002</v>
       </c>
       <c r="J10" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="I11" s="46" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_7x19F#0001</v>
+        <v>HKD_YC1YRH_7x19F#0002</v>
       </c>
       <c r="J11" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="I12" s="46" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_8x20F#0001</v>
+        <v>HKD_YC1YRH_8x20F#0002</v>
       </c>
       <c r="J12" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="I13" s="46" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_9x21F#0001</v>
+        <v>HKD_YC1YRH_9x21F#0002</v>
       </c>
       <c r="J13" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="I14" s="46" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_10x22F#0001</v>
+        <v>HKD_YC1YRH_10x22F#0002</v>
       </c>
       <c r="J14" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="I15" s="46" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_11x23F#0001</v>
+        <v>HKD_YC1YRH_11x23F#0002</v>
       </c>
       <c r="J15" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="I16" s="42" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_12x24F#0001</v>
+        <v>HKD_YC1YRH_12x24F#0002</v>
       </c>
       <c r="J16" s="77" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="I17" s="56" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_13x25F#0001</v>
+        <v>HKD_YC1YRH_13x25F#0002</v>
       </c>
       <c r="J17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="I18" s="46" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_14x26F#0001</v>
+        <v>HKD_YC1YRH_14x26F#0002</v>
       </c>
       <c r="J18" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I19" s="46" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_15x27F#0001</v>
+        <v>HKD_YC1YRH_15x27F#0002</v>
       </c>
       <c r="J19" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="I20" s="46" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_16x28F#0001</v>
+        <v>HKD_YC1YRH_16x28F#0002</v>
       </c>
       <c r="J20" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="I21" s="46" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_17x29F#0001</v>
+        <v>HKD_YC1YRH_17x29F#0002</v>
       </c>
       <c r="J21" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="I22" s="46" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_18x30F#0001</v>
+        <v>HKD_YC1YRH_18x30F#0002</v>
       </c>
       <c r="J22" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="I23" s="46" t="str">
         <f>_xll.qlFraRateHelper(H23,G23,B23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_19x31F#0001</v>
+        <v>HKD_YC1YRH_19x31F#0002</v>
       </c>
       <c r="J23" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="I24" s="46" t="str">
         <f>_xll.qlFraRateHelper(H24,G24,B24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_20x32F#0001</v>
+        <v>HKD_YC1YRH_20x32F#0002</v>
       </c>
       <c r="J24" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="I25" s="46" t="str">
         <f>_xll.qlFraRateHelper(H25,G25,B25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_21x33F#0001</v>
+        <v>HKD_YC1YRH_21x33F#0002</v>
       </c>
       <c r="J25" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="I26" s="46" t="str">
         <f>_xll.qlFraRateHelper(H26,G26,B26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_22x34F#0001</v>
+        <v>HKD_YC1YRH_22x34F#0002</v>
       </c>
       <c r="J26" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="I27" s="47" t="str">
         <f>_xll.qlFraRateHelper(H27,G27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_23x35F#0001</v>
+        <v>HKD_YC1YRH_23x35F#0002</v>
       </c>
       <c r="J27" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I28" s="56" t="str">
         <f>_xll.qlFraRateHelper(H28,G28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_25x37F#0001</v>
+        <v>HKD_YC1YRH_25x37F#0002</v>
       </c>
       <c r="J28" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I29" s="46" t="str">
         <f>_xll.qlFraRateHelper(H29,G29,B29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_26x38F#0001</v>
+        <v>HKD_YC1YRH_26x38F#0002</v>
       </c>
       <c r="J29" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="I30" s="46" t="str">
         <f>_xll.qlFraRateHelper(H30,G30,B30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_27x39F#0001</v>
+        <v>HKD_YC1YRH_27x39F#0002</v>
       </c>
       <c r="J30" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="I31" s="46" t="str">
         <f>_xll.qlFraRateHelper(H31,G31,B31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_28x40F#0001</v>
+        <v>HKD_YC1YRH_28x40F#0002</v>
       </c>
       <c r="J31" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="I32" s="46" t="str">
         <f>_xll.qlFraRateHelper(H32,G32,B32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_29x41F#0001</v>
+        <v>HKD_YC1YRH_29x41F#0002</v>
       </c>
       <c r="J32" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I33" s="46" t="str">
         <f>_xll.qlFraRateHelper(H33,G33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_30x42F#0001</v>
+        <v>HKD_YC1YRH_30x42F#0002</v>
       </c>
       <c r="J33" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="I34" s="46" t="str">
         <f>_xll.qlFraRateHelper(H34,G34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_31x43F#0001</v>
+        <v>HKD_YC1YRH_31x43F#0002</v>
       </c>
       <c r="J34" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="I35" s="46" t="str">
         <f>_xll.qlFraRateHelper(H35,G35,B35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_32x44F#0001</v>
+        <v>HKD_YC1YRH_32x44F#0002</v>
       </c>
       <c r="J35" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="I36" s="46" t="str">
         <f>_xll.qlFraRateHelper(H36,G36,B36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_33x45F#0001</v>
+        <v>HKD_YC1YRH_33x45F#0002</v>
       </c>
       <c r="J36" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I37" s="46" t="str">
         <f>_xll.qlFraRateHelper(H37,G37,B37,E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_34x46F#0001</v>
+        <v>HKD_YC1YRH_34x46F#0002</v>
       </c>
       <c r="J37" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="I38" s="47" t="str">
         <f>_xll.qlFraRateHelper(H38,G38,B38,E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_35x47F#0001</v>
+        <v>HKD_YC1YRH_35x47F#0002</v>
       </c>
       <c r="J38" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I39" s="46" t="str">
         <f>_xll.qlFraRateHelper(H39,G39,B39,E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_37x49F#0001</v>
+        <v>HKD_YC1YRH_37x49F#0002</v>
       </c>
       <c r="J39" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="I40" s="46" t="str">
         <f>_xll.qlFraRateHelper(H40,G40,B40,E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_38x50F#0001</v>
+        <v>HKD_YC1YRH_38x50F#0002</v>
       </c>
       <c r="J40" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="I41" s="46" t="str">
         <f>_xll.qlFraRateHelper(H41,G41,B41,E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_39x51F#0001</v>
+        <v>HKD_YC1YRH_39x51F#0002</v>
       </c>
       <c r="J41" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="I42" s="46" t="str">
         <f>_xll.qlFraRateHelper(H42,G42,B42,E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_40x52F#0001</v>
+        <v>HKD_YC1YRH_40x52F#0002</v>
       </c>
       <c r="J42" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I43" s="46" t="str">
         <f>_xll.qlFraRateHelper(H43,G43,B43,E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_41x53F#0001</v>
+        <v>HKD_YC1YRH_41x53F#0002</v>
       </c>
       <c r="J43" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="I44" s="46" t="str">
         <f>_xll.qlFraRateHelper(H44,G44,B44,E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_42x54F#0001</v>
+        <v>HKD_YC1YRH_42x54F#0002</v>
       </c>
       <c r="J44" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="I45" s="46" t="str">
         <f>_xll.qlFraRateHelper(H45,G45,B45,E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_43x55F#0001</v>
+        <v>HKD_YC1YRH_43x55F#0002</v>
       </c>
       <c r="J45" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I46" s="46" t="str">
         <f>_xll.qlFraRateHelper(H46,G46,B46,E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_44x56F#0001</v>
+        <v>HKD_YC1YRH_44x56F#0002</v>
       </c>
       <c r="J46" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="I47" s="46" t="str">
         <f>_xll.qlFraRateHelper(H47,G47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_45x57F#0001</v>
+        <v>HKD_YC1YRH_45x57F#0002</v>
       </c>
       <c r="J47" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="I48" s="46" t="str">
         <f>_xll.qlFraRateHelper(H48,G48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_46x58F#0001</v>
+        <v>HKD_YC1YRH_46x58F#0002</v>
       </c>
       <c r="J48" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="I49" s="47" t="str">
         <f>_xll.qlFraRateHelper(H49,G49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1YRH_47x59F#0001</v>
+        <v>HKD_YC1YRH_47x59F#0002</v>
       </c>
       <c r="J49" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -8313,13 +8313,13 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC1M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="43" t="e">
+      <c r="H2" s="35">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="H3" s="56" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_T1F1#0001</v>
+        <v>HKD_YC1M-MxRH_T1F1#0002</v>
       </c>
       <c r="I3" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="H4" s="47" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_TOM1F1#0001</v>
+        <v>HKD_YC1M-MxRH_TOM1F1#0002</v>
       </c>
       <c r="I4" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
